--- a/web/resources/testdata/test_data.xlsx
+++ b/web/resources/testdata/test_data.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Documents\Web-Programming\KTHP_KTPM\web\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF8842-19A1-4BCB-AB79-56722ACFA465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719F435-073B-46FD-AAEB-7D859BF2E0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="SignUpData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>email</t>
+    <t>admin@gmail.com</t>
   </si>
   <si>
     <t>phuctv123@gmail.com</t>
@@ -39,7 +38,16 @@
     <t>Password678</t>
   </si>
   <si>
-    <t>admin@gmail.com</t>
+    <t>user1745331114@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -83,13 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -373,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,31 +395,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>123123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>